--- a/runs/normative_analysis/Normative_Modeling_Summary.xlsx
+++ b/runs/normative_analysis/Normative_Modeling_Summary.xlsx
@@ -34,12 +34,15 @@
     <t>Is_High_Risk</t>
   </si>
   <si>
+    <t>SDNN</t>
+  </si>
+  <si>
+    <t>LFHF</t>
+  </si>
+  <si>
     <t>MEANH</t>
   </si>
   <si>
-    <t>SDNN</t>
-  </si>
-  <si>
     <t>TP</t>
   </si>
   <si>
@@ -53,9 +56,6 @@
   </si>
   <si>
     <t>NLF</t>
-  </si>
-  <si>
-    <t>LFHF</t>
   </si>
   <si>
     <t>Healthy</t>
@@ -465,10 +465,10 @@
         <v>170</v>
       </c>
       <c r="D2">
-        <v>-0.003337996647888458</v>
+        <v>0.04267357629906501</v>
       </c>
       <c r="E2">
-        <v>0.08235294117647059</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -485,10 +485,10 @@
         <v>134</v>
       </c>
       <c r="D3">
-        <v>-0.3588400807774053</v>
+        <v>0.1361089325045015</v>
       </c>
       <c r="E3">
-        <v>0.1865671641791045</v>
+        <v>0.1119402985074627</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -505,10 +505,10 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>0.0978975593718955</v>
+        <v>-0.265771460218597</v>
       </c>
       <c r="E4">
-        <v>0.1379310344827586</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -525,10 +525,10 @@
         <v>75</v>
       </c>
       <c r="D5">
-        <v>-0.5433646565458977</v>
+        <v>0.4366302890285875</v>
       </c>
       <c r="E5">
-        <v>0.2</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -545,13 +545,13 @@
         <v>99</v>
       </c>
       <c r="D6">
-        <v>-0.6198405730951539</v>
+        <v>0.3088558769171756</v>
       </c>
       <c r="E6">
-        <v>0.202020202020202</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -565,10 +565,10 @@
         <v>170</v>
       </c>
       <c r="D7">
-        <v>0.04267357629906501</v>
+        <v>0.009809273110174901</v>
       </c>
       <c r="E7">
-        <v>0.07058823529411765</v>
+        <v>0.05294117647058823</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D8">
-        <v>0.1361089325045015</v>
+        <v>0.09391755096067607</v>
       </c>
       <c r="E8">
-        <v>0.1119402985074627</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -605,10 +605,10 @@
         <v>58</v>
       </c>
       <c r="D9">
-        <v>-0.265771460218597</v>
+        <v>0.2815144396960161</v>
       </c>
       <c r="E9">
-        <v>0.1896551724137931</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -622,13 +622,13 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10">
-        <v>0.4366302890285875</v>
+        <v>0.2321710558625649</v>
       </c>
       <c r="E10">
-        <v>0.1066666666666667</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -645,13 +645,13 @@
         <v>99</v>
       </c>
       <c r="D11">
-        <v>0.3088558769171756</v>
+        <v>-0.3175408096173866</v>
       </c>
       <c r="E11">
-        <v>0.0707070707070707</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -665,10 +665,10 @@
         <v>170</v>
       </c>
       <c r="D12">
-        <v>0.04236979183596354</v>
+        <v>-0.003337996647888458</v>
       </c>
       <c r="E12">
-        <v>0.06470588235294118</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -685,10 +685,10 @@
         <v>134</v>
       </c>
       <c r="D13">
-        <v>-0.2458966638344629</v>
+        <v>-0.3588400807774053</v>
       </c>
       <c r="E13">
-        <v>0.1417910447761194</v>
+        <v>0.1865671641791045</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -705,10 +705,10 @@
         <v>58</v>
       </c>
       <c r="D14">
-        <v>-0.2777912701375553</v>
+        <v>0.0978975593718955</v>
       </c>
       <c r="E14">
-        <v>0.2241379310344828</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -725,10 +725,10 @@
         <v>75</v>
       </c>
       <c r="D15">
-        <v>0.1231021952630295</v>
+        <v>-0.5433646565458977</v>
       </c>
       <c r="E15">
-        <v>0.1333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -745,13 +745,13 @@
         <v>99</v>
       </c>
       <c r="D16">
-        <v>0.1852263970308993</v>
+        <v>-0.6198405730951539</v>
       </c>
       <c r="E16">
-        <v>0.09090909090909091</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -765,10 +765,10 @@
         <v>170</v>
       </c>
       <c r="D17">
-        <v>-0.03425291187683335</v>
+        <v>0.04236979183596354</v>
       </c>
       <c r="E17">
-        <v>0.07058823529411765</v>
+        <v>0.06470588235294118</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>134</v>
       </c>
       <c r="D18">
-        <v>-0.4203902789042568</v>
+        <v>-0.2458966638344629</v>
       </c>
       <c r="E18">
-        <v>0.1641791044776119</v>
+        <v>0.1417910447761194</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -805,10 +805,10 @@
         <v>58</v>
       </c>
       <c r="D19">
-        <v>-0.4205457441572183</v>
+        <v>-0.2777912701375553</v>
       </c>
       <c r="E19">
-        <v>0.1896551724137931</v>
+        <v>0.2241379310344828</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -825,10 +825,10 @@
         <v>75</v>
       </c>
       <c r="D20">
-        <v>-0.04531207194196294</v>
+        <v>0.1231021952630295</v>
       </c>
       <c r="E20">
-        <v>0.1066666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -845,13 +845,13 @@
         <v>99</v>
       </c>
       <c r="D21">
-        <v>-0.07164247417435948</v>
+        <v>0.1852263970308993</v>
       </c>
       <c r="E21">
-        <v>0.1111111111111111</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -865,10 +865,10 @@
         <v>170</v>
       </c>
       <c r="D22">
-        <v>-0.01578848390159512</v>
+        <v>-0.03425291187683335</v>
       </c>
       <c r="E22">
-        <v>0.06470588235294118</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -885,13 +885,13 @@
         <v>134</v>
       </c>
       <c r="D23">
-        <v>-0.2720828989757487</v>
+        <v>-0.4203902789042568</v>
       </c>
       <c r="E23">
-        <v>0.09701492537313433</v>
+        <v>0.1641791044776119</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -905,10 +905,10 @@
         <v>58</v>
       </c>
       <c r="D24">
-        <v>-0.4095738830907037</v>
+        <v>-0.4205457441572183</v>
       </c>
       <c r="E24">
-        <v>0.1551724137931035</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
@@ -925,13 +925,13 @@
         <v>75</v>
       </c>
       <c r="D25">
-        <v>0.04637288873478251</v>
+        <v>-0.04531207194196294</v>
       </c>
       <c r="E25">
-        <v>0.08</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -945,13 +945,13 @@
         <v>99</v>
       </c>
       <c r="D26">
-        <v>-0.06355661790339756</v>
+        <v>-0.07164247417435948</v>
       </c>
       <c r="E26">
-        <v>0.08080808080808081</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -965,10 +965,10 @@
         <v>170</v>
       </c>
       <c r="D27">
-        <v>0.001654317172391342</v>
+        <v>-0.01578848390159512</v>
       </c>
       <c r="E27">
-        <v>0.08235294117647059</v>
+        <v>0.06470588235294118</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -985,13 +985,13 @@
         <v>134</v>
       </c>
       <c r="D28">
-        <v>-0.3420782398868182</v>
+        <v>-0.2720828989757487</v>
       </c>
       <c r="E28">
-        <v>0.1865671641791045</v>
+        <v>0.09701492537313433</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1005,10 +1005,10 @@
         <v>58</v>
       </c>
       <c r="D29">
-        <v>-0.3765554617354337</v>
+        <v>-0.4095738830907037</v>
       </c>
       <c r="E29">
-        <v>0.2413793103448276</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
@@ -1025,13 +1025,13 @@
         <v>75</v>
       </c>
       <c r="D30">
-        <v>-0.09380733217676249</v>
+        <v>0.04637288873478251</v>
       </c>
       <c r="E30">
-        <v>0.1733333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1045,13 +1045,13 @@
         <v>99</v>
       </c>
       <c r="D31">
-        <v>0.1327771662421148</v>
+        <v>-0.06355661790339756</v>
       </c>
       <c r="E31">
-        <v>0.1111111111111111</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1065,10 +1065,10 @@
         <v>170</v>
       </c>
       <c r="D32">
-        <v>-0.404691685908544</v>
+        <v>0.001654317172391342</v>
       </c>
       <c r="E32">
-        <v>0.1705882352941177</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>15</v>
       </c>
       <c r="C33">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D33">
-        <v>-0.7091630120728467</v>
+        <v>-0.3420782398868182</v>
       </c>
       <c r="E33">
-        <v>0.2196969696969697</v>
+        <v>0.1865671641791045</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
@@ -1105,10 +1105,10 @@
         <v>58</v>
       </c>
       <c r="D34">
-        <v>-0.7469355010347631</v>
+        <v>-0.3765554617354337</v>
       </c>
       <c r="E34">
-        <v>0.2241379310344828</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
@@ -1122,13 +1122,13 @@
         <v>17</v>
       </c>
       <c r="C35">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D35">
-        <v>-0.5527555653951876</v>
+        <v>-0.09380733217676249</v>
       </c>
       <c r="E35">
-        <v>0.2432432432432433</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
@@ -1145,10 +1145,10 @@
         <v>99</v>
       </c>
       <c r="D36">
-        <v>-1.259632990418512</v>
+        <v>0.1327771662421148</v>
       </c>
       <c r="E36">
-        <v>0.303030303030303</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
@@ -1165,10 +1165,10 @@
         <v>170</v>
       </c>
       <c r="D37">
-        <v>0.009809273110174901</v>
+        <v>-0.404691685908544</v>
       </c>
       <c r="E37">
-        <v>0.05294117647058823</v>
+        <v>0.1705882352941177</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -1185,10 +1185,10 @@
         <v>132</v>
       </c>
       <c r="D38">
-        <v>0.09391755096067607</v>
+        <v>-0.7091630120728467</v>
       </c>
       <c r="E38">
-        <v>0.1136363636363636</v>
+        <v>0.2196969696969697</v>
       </c>
       <c r="F38" t="b">
         <v>1</v>
@@ -1205,10 +1205,10 @@
         <v>58</v>
       </c>
       <c r="D39">
-        <v>0.2815144396960161</v>
+        <v>-0.7469355010347631</v>
       </c>
       <c r="E39">
-        <v>0.1724137931034483</v>
+        <v>0.2241379310344828</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
@@ -1225,10 +1225,10 @@
         <v>74</v>
       </c>
       <c r="D40">
-        <v>0.2321710558625649</v>
+        <v>-0.5527555653951876</v>
       </c>
       <c r="E40">
-        <v>0.1216216216216216</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
@@ -1245,10 +1245,10 @@
         <v>99</v>
       </c>
       <c r="D41">
-        <v>-0.3175408096173866</v>
+        <v>-1.259632990418512</v>
       </c>
       <c r="E41">
-        <v>0.1515151515151515</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
